--- a/Docs/PCB_Clock_STM8.vProject_Version/Gerber_PCB_Clock_STM8.vProject_Version_(2025-02-27)/PCB_Requirements_PCB_Clock_STM8.vProject_Version.xlsx
+++ b/Docs/PCB_Clock_STM8.vProject_Version/Gerber_PCB_Clock_STM8.vProject_Version_(2025-02-27)/PCB_Requirements_PCB_Clock_STM8.vProject_Version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Clock_STM8\Docs\PCB_Clock_STM8.vProject_Version\Gerber_PCB_Clock_STM8.vProject_Version_(2025-02-27)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A41E5F2F-1A28-4813-AF33-00B0D65E50C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A5D213-F759-4483-B279-40EFFDDBA512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25736D47-5342-4A7C-AA47-4F7DC3EA273D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D99E7C7-2FC6-438F-80B0-54BE110D3026}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB_Requirements_PCB_Clock_STM8" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BF7615-93B1-4BEE-AC4E-F640DB175F8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BF23F3-57B7-4772-B046-02958E1AB1E0}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
